--- a/src/main/resources/files/outline.xlsx
+++ b/src/main/resources/files/outline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\demo\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA3FE017-1E05-442F-8508-A1A33600C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0268E4C-35D1-42F9-B41D-B2DD096BFA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="0" windowWidth="7548" windowHeight="12360" xr2:uid="{337A54FD-E3F2-468D-BBBA-60CC256032B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{337A54FD-E3F2-468D-BBBA-60CC256032B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -217,14 +217,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,11 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -570,296 +571,294 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CDD88-B78E-441D-A784-DE77AFF3017D}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.09765625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
